--- a/results/results_grid_updated2.xlsx
+++ b/results/results_grid_updated2.xlsx
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">saikat!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="9">
   <si>
     <t>Accuracy</t>
   </si>
@@ -534,7 +534,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G36" totalsRowShown="0" headerRowDxfId="0" dataDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G37" totalsRowShown="0" headerRowDxfId="0" dataDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <tableColumns count="7">
     <tableColumn id="1" name="Dictionary Size" dataDxfId="7"/>
     <tableColumn id="2" name="Histogram Intersection Kernel" dataDxfId="6"/>
@@ -835,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>2</v>
@@ -1305,16 +1305,16 @@
         <v>1</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E21" s="3">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F21" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G21" s="5">
-        <v>65.159000000000006</v>
+        <v>67.578900000000004</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1331,13 +1331,13 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F22" s="3">
         <v>4</v>
       </c>
       <c r="G22" s="5">
-        <v>64.254599999999996</v>
+        <v>65.159000000000006</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1354,13 +1354,13 @@
         <v>100</v>
       </c>
       <c r="E23" s="3">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F23" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G23" s="5">
-        <v>61.54</v>
+        <v>64.254599999999996</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1377,13 +1377,13 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F24" s="3">
         <v>8</v>
       </c>
       <c r="G24" s="5">
-        <v>58.12</v>
+        <v>61.54</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1391,7 +1391,7 @@
         <v>1024</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>1</v>
@@ -1400,13 +1400,13 @@
         <v>100</v>
       </c>
       <c r="E25" s="3">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F25" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G25" s="5">
-        <v>55.64</v>
+        <v>58.12</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1414,7 +1414,7 @@
         <v>1024</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>1</v>
@@ -1423,13 +1423,13 @@
         <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F26" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G26" s="5">
-        <v>51.323300000000003</v>
+        <v>55.64</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1446,13 +1446,13 @@
         <v>100</v>
       </c>
       <c r="E27" s="3">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F27" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G27" s="5">
-        <v>50.41</v>
+        <v>51.323300000000003</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1460,7 +1460,7 @@
         <v>1024</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>1</v>
@@ -1475,7 +1475,7 @@
         <v>16</v>
       </c>
       <c r="G28" s="5">
-        <v>48.74</v>
+        <v>50.41</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1483,7 +1483,7 @@
         <v>1024</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>1</v>
@@ -1492,13 +1492,13 @@
         <v>100</v>
       </c>
       <c r="E29" s="3">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F29" s="3">
         <v>16</v>
       </c>
       <c r="G29" s="5">
-        <v>47.16</v>
+        <v>48.74</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1515,13 +1515,13 @@
         <v>100</v>
       </c>
       <c r="E30" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F30" s="3">
         <v>16</v>
       </c>
       <c r="G30" s="5">
-        <v>44.22</v>
+        <v>47.16</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1532,19 +1532,19 @@
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E31" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F31" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G31" s="5">
-        <v>43.819099999999999</v>
+        <v>44.22</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1564,10 +1564,10 @@
         <v>16</v>
       </c>
       <c r="F32" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G32" s="5">
-        <v>42.8476</v>
+        <v>43.819099999999999</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1575,22 +1575,22 @@
         <v>1024</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E33" s="3">
         <v>16</v>
       </c>
       <c r="F33" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G33" s="5">
-        <v>42.64</v>
+        <v>42.8476</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1598,22 +1598,22 @@
         <v>1024</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E34" s="3">
         <v>16</v>
       </c>
       <c r="F34" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G34" s="5">
-        <v>41.5745</v>
+        <v>42.64</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1621,13 +1621,13 @@
         <v>1024</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E35" s="3">
         <v>16</v>
@@ -1636,7 +1636,7 @@
         <v>8</v>
       </c>
       <c r="G35" s="5">
-        <v>41.41</v>
+        <v>41.5745</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1653,17 +1653,40 @@
         <v>100</v>
       </c>
       <c r="E36" s="3">
+        <v>16</v>
+      </c>
+      <c r="F36" s="3">
+        <v>8</v>
+      </c>
+      <c r="G36" s="5">
+        <v>41.41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>1024</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3">
+        <v>100</v>
+      </c>
+      <c r="E37" s="3">
         <v>32</v>
       </c>
-      <c r="F36" s="3">
-        <v>8</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="F37" s="3">
+        <v>8</v>
+      </c>
+      <c r="G37" s="5">
         <v>37.049999999999997</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G36">
+  <conditionalFormatting sqref="G2:G37">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
